--- a/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造04.xlsx
+++ b/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造04.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>u32</t>
     <phoneticPr fontId="1"/>
@@ -36,80 +36,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索インデックス種数</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_GAME_DATA_SEARCHING_INDEX[n][基本データ情報::データ件数]</t>
-    <rPh sb="31" eb="33">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索インデックス情報[n]</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※検索インデックス種数分続く…</t>
-    <rPh sb="1" eb="3">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CRC値</t>
-    <rPh sb="3" eb="4">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>u8[]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索キー</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -128,12 +55,221 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>04：検索インデックス部</t>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
+    <t>u32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実データオフセット</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データはCRC値順に並び、バイナリサーチ可能な状態</t>
+    <rPh sb="7" eb="8">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（16バイトアラインメントパディング）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u8[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並べ替えキーCRC値</t>
+    <rPh sb="0" eb="1">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並べ替えキー（文字列）のCRC値</t>
+    <rPh sb="0" eb="1">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル参照データ[n]</t>
+    <rPh sb="4" eb="6">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルの実データ位置のオフセット　※並べ替え用インデックステーブル部のトップからのオフセット</t>
+    <rPh sb="5" eb="6">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
       <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※テーブル数分続く…</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並べ替え用インデックステーブル[n][]</t>
+    <rPh sb="0" eb="1">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※テーブル数×データ件数分続く…</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「並べ替えキー」が一つも指定されなかった場合、この「並べ替え用インデックステーブル部」自体が存在しない。</t>
+    <rPh sb="2" eb="3">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04：並べ替え用インデックステーブル部：T_GDBIN_SORTING_TABLE</t>
+    <rPh sb="3" eb="4">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_GD_SORT_REF[n]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_GD_SORT_IDX[n][基本データ情報::データ件数]</t>
+    <rPh sb="17" eb="19">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -214,12 +350,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -582,6 +718,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -591,10 +736,68 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="hair">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -605,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,11 +935,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,7 +1242,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,7 +1257,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1048,7 +1269,7 @@
     <row r="2" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A2" s="30"/>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
@@ -1063,22 +1284,22 @@
     <row r="3" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A3" s="30"/>
       <c r="B3" s="39" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A4" s="30"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>7</v>
@@ -1087,62 +1308,127 @@
         <v>4</v>
       </c>
       <c r="G4" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A5" s="30"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5" s="13">
         <v>4</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="30"/>
       <c r="B6" s="29"/>
       <c r="C6" s="36" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A7" s="30"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A8" s="30"/>
+      <c r="B8" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="30"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>4</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" s="30"/>
+      <c r="B11" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="35"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
